--- a/medicine/Psychotrope/Concours_international_des_vins/Concours_international_des_vins.xlsx
+++ b/medicine/Psychotrope/Concours_international_des_vins/Concours_international_des_vins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Concours international des vins[1]  de Bruxelles est organisé annuellement par Monde Selection, un institut international de la qualité[2]. Créée en 1961[3], cette compétition viticole est l’une des plus anciennes au monde[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Concours international des vins  de Bruxelles est organisé annuellement par Monde Selection, un institut international de la qualité. Créée en 1961, cette compétition viticole est l’une des plus anciennes au monde.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Membres du jury / Juges</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D’éminents experts sont sélectionnés par Monde Selection[5] pour leurs compétences professionnelles. Parmi eux se trouvent :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D’éminents experts sont sélectionnés par Monde Selection pour leurs compétences professionnelles. Parmi eux se trouvent :
 des œnologues,
 des sommeliers,
 des experts en vins,
@@ -547,7 +561,9 @@
           <t>Distinctions et trophées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le calcul des résultats se fait selon les procédures officielles développées par l’OIV et s’y conforme chaque année.
 Plusieurs niveaux de distinctions sont décernées :
@@ -555,7 +571,7 @@
 Médaille d'argent pour les produits atteignant un minimum de 82 points
 Médaille d'or pour les produits atteignant un minimum de 85 points
 Grande Médaille d'or pour les produits atteignant un minimum de 92 points
-La somme de toutes les récompenses, attribuées aux vins ayant obtenu les meilleurs résultats, ne doit pas dépasser 30 % du total des échantillons présentés au Concours[6].
+La somme de toutes les récompenses, attribuées aux vins ayant obtenu les meilleurs résultats, ne doit pas dépasser 30 % du total des échantillons présentés au Concours.
 </t>
         </is>
       </c>
@@ -584,9 +600,11 @@
           <t>Particularités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit de la seule compétition belge à avoir reçu le patronage de l’Organisation internationale de la vigne et du vin (OIV)[7].  
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit de la seule compétition belge à avoir reçu le patronage de l’Organisation internationale de la vigne et du vin (OIV).  
 Le concours se déroule sous le contrôle de l’Union européenne et de la Direction générale contrôle et médiation du service public fédéral économie.
 </t>
         </is>
